--- a/biology/Médecine/Condyle_latéral_du_tibia/Condyle_latéral_du_tibia.xlsx
+++ b/biology/Médecine/Condyle_latéral_du_tibia/Condyle_latéral_du_tibia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condyle_lat%C3%A9ral_du_tibia</t>
+          <t>Condyle_latéral_du_tibia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condyle latéral du tibia est la tête articulaire supérieure et latérale du tibia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condyle_lat%C3%A9ral_du_tibia</t>
+          <t>Condyle_latéral_du_tibia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condyle latéral du tibia constitue le sommet latéral du tibia. Sa face supérieure forme la partie latérale du plateau tibial et porte la surface articulaire supérieure du condyle latéral du tibia faisant partie des surfaces articulaires supérieures du tibia.
 Il est moins volumineux que le condyle médial du tibia et en est séparé par la surface intercondylaire.
